--- a/500all/speech_level/speeches_CHRG-114hhrg20712.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20712.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="246">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400285</t>
   </si>
   <si>
-    <t>Tim Murphy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Murphy. Good morning, and welcome to the Oversight and Investigation Subcommittee of Energy and Commerce hearing on ``How Secure are U.S. Bioresearch Labs: Preventing the Next Safety Lapse,'' which I think I can dub ``Overturning the Culture of Compliancy.''    Because this is the third time in as many years that this subcommittee has held a hearing on the Federal Select Agent Program and the Federal Government's high-containment laboratories.    And each time, a panel of witnesses appear before us to testify about changes made in response to one failure or another.    Two years ago, CDC Director Tom Frieden testified about changes made at the CDC after failing to follow safety procedures, which consequently potentially exposed dozens of CDC employees to anthrax.    Dr. Frieden told us then that the CDC was implementing every step possible to make sure that the problems are addressed comprehensively in order to protect our own workforce and to strengthen the culture of safety and to continue our work protecting Americans.    And I might add that that echoed a statement he had made perhaps a year or so before on the same issue, saying that he was going to impose other things to change the culture.    But last year, then, the Deputy Assistant Secretary of Defense for Chemical and Biological Defense came before us to explain how at least 192 labs across the world received live anthrax from the Dugway Proving Ground, an Army lab in Utah. The Army undertook a comprehensive review of the incident and the deputy secretary told us that the department was ``committed to ensuring that this doesn't occur again,'' and that last statement is in quotes.    Sweeping improvements and policy changes only work if the policies are effective and, in this area, past policy reviews have not brought about the changes necessary to improve safety.    For that reason, Ms. DeGette and myself, along with Chairman Upton and Ranking Member Pallone, asked the GAO to evaluate the biosafety, biosecurity and oversight policies for the eight departments and 15 component agencies that own and operate the Federal Government's high-containment laboratories.    GAO has been issuing recommendations for years on the need for better policies and standards at high-containment labs, recommendations that have not been implemented. So the agency was well-positioned to receive our request.    GAO found that while the departments and agencies have improved on their biosecurity procedures in recent years, comprehensive policies and better oversight of the labs are still needed.    High-containment laboratories, which store the most dangerous pathogens, must have tight inventory control, rigorous training and required incidence reporting, and agencies and departments must have strong oversight of their laboratories with accountability for those who fail to follow the policies.    While GAO has been doing its work, the committee has been conducting its own review into the discovery of smallpox vials at the NIH in 2014. The preliminary findings of the majority staff are discussed in a supplemental memorandum released yesterday.    We found a number of flash points here where, if NIH or FDA had done just a little more than what their policies required or thought outside the box just a little bit, those agencies could have discovered the smallpox vials years earlier.    For example, the NIH experienced a major event in 2011 when it learned that a researcher received an unauthorized transfer of antibiotic resistant plague specimens, and in 2012 when it discovered unregistered antibiotic-resistant anthrax included at an FDA lab in this very same building where the smallpox was discovered 2 years later.    The 2012 discovery was prompted by a disclosure of two investigators during a retraining exercise prompted by the 2011 discovery by the CDC's Division of Select Agents and Toxins not by any investigative work on the part of the NIH and the 2012 discovery resulted in the CDC putting NIH on a Performance Improvement Plan.    These discoveries, including two different dangerous pathogens, should have spurred NIH and FDA to conduct a comprehensive sweep of all laboratories and a comprehensive review of its policies at the time.    But they didn't. When we informed NIH and FDA of our findings, we found agencies still reluctant to acknowledge the full extent of their failings.    NIH did not even acknowledge its failings in how it registered into the Federal Select Agent Program, a historical collection of select agent samples held in sealed envelopes unopened since 1960.    NIH registered the materials without opening the envelopes. The agency did not confirm the materials inside the envelopes or even verify that the samples were still secure, and they registered these materials not once, but twice, without opening the envelopes.    When they finally did open the envelopes, they discovered seven additional vials of one select agent than previously reported. These failures just defy common sense.    This is a culture of complacency, and it shows that it is not enough to change the policies. We must also change the culture at NIH.    While the Department of Defense is holding 12 people accountable for the factors that led to the Dugway shipments, in contrast HHS and its agencies have not been fully accountable and transparent with the committee on disciplinary and personnel actions resulting from lab safety incidents.    For example, the committee requested documents from the CDC as part of our investigation regarding the four instances of improperly stored anthrax at NIH. Unfortunately, the CDC produced redacted documents, blacking out key information.    There was no legal basis for these redactions and CDC offered no explanation. This type of response is designed to delay and stymie congressional oversight on behalf of the American people and this committee will not stand for that. When we request documents, we expect unredacted documents.    If these agencies are not being forthcoming with this committee and this Congress, then they are certainly not being forthcoming with the American people. For all the CDC rhetoric about transparency, redactions of key details in requested investigative documents prove otherwise.    We all deserve better. Neither NIH nor FDA ever conducted an internal review of the smallpox incident along the lines of the reviews conducted by the CDC or the DoD, deferring instead to an outside review by the CDC and FBI.    I urge these agencies to initiate internal reviews of their own failings leading up to the smallpox discovery and if we learn nothing from all of the incidents involving select agents over the years, it is that we can't find the next safety lapse if we don't go looking for it.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412195</t>
   </si>
   <si>
-    <t>Kathy Castor</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Castor. Well, thank you, Mr. Chairman, for calling this important hearing, and welcome to our witnesses today.    The House Energy and Commerce Committee has been monitoring high-containment biolabs and the select agent program for nearly a decade and I believe that it is vital that we continue our oversight of these critical programs.    The committee held a hearing earlier this year about the importance of biodefense preparedness and we know that high-containment laboratories play a valuable role in that effort by conducting research, to improve our defenses against biological attacks and strengthening our response capabilities.    The Federal Government's work on identifying and containing public health risks from these type of biological agents is essential but it also poses many risks.    Everyone has been disturbed by the news of accidental releases or transfers of select agents such as anthrax, ebola and avian flu over the past few years. These incidents raise broader questions about the safety of our high-containment laboratories across the country.    And while I'm encouraged that no one has fallen ill as a result of those incidents, these pathogens need to be handled with the utmost safety and security. They could be extremely dangerous if they fell into the wrong hands or if infection spread to the general public.    The labs that handle these dangerous pathogens must be held to the highest standards. Yet, these recent incidents raise questions about whether or not we can trust high-containment labs to safely handle select agents and other dangerous pathogens.    I want to understand what these recent lapses can teach us about broader problems within the agencies and departments that handle select agents across the Federal Government as well within the private sector.    So we've asked the GAO to appear before us today to testify about their latest report on the need for up to date policies and stronger oversight mechanisms at our high-containment labs.    I look forward to hearing from you about your findings and recommendations and how they can be used to enhance safety and security at all of our nation's high-containment labs.    This GAO report underscores the need to strengthen our Federal oversight of labs that are working with dangerous pathogens. I also want to hear from witnesses about the role that Congress can play in making sure this program operates safely and without more of the operational lapses that seem all too common for such a serious program.    Is the current regulatory framework sufficient? Do the enforcement agencies have sufficient resources to ensure that oversight is robust? What are the agencies in front of us doing to improve their labs and prevent future incidents?    I look forward to hearing your testimony and I yield back.</t>
   </si>
   <si>
@@ -79,18 +73,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Neumann</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Neumann. I want to thank you, Chairman Murphy and Ranking Member DeGette and members of the subcommittee, for inviting me here today to discuss GAO's report on the oversight of high-containment laboratories, which was publicly released for this hearing.    Over the last 2 years, safety lapses at Federal high-containment laboratories have raised concerns about department and agency oversight of these facilities.    These labs work with hazardous biological agents such as the virus that causes smallpox, a contagious and sometimes fatal infectious disease to humans, as well as live anthrax bacteria which has the potential to seriously threaten both human and animal health.    High-containment labs do important work with pathogens such as developing vaccines and counter measures and conducting research to understand emerging infectious diseases.    However, some of these pathogens also have the potential for high-consequence accidents if handled improperly. Today, I would like to briefly highlight the findings from our report.    First, we found that most of the eight departments and 15 agencies with high-containment labs do not have comprehensive or up to date policies.    We considered policies to be comprehensive if they included the following six key elements for managing pathogens in high-containment labs, the first one being incident reporting, inventory control, inspections, clear roles and responsibilities, training and adherence to the leading biosafety guidance for laboratories published by CDC and NIH.    While departments and agencies had policies in place, as I noted most were not comprehensive, meaning that they did not include all these elements.    In addition, some policies were not up to date as they had not been reviewed and updated in accordance with their internal review schedules and in some cases these policies had not been reviewed in close to 10 years.    These policies and the six key elements are an important foundation for lab safety. But policies alone will not ensure the lab personnel are adhering to them. This brings me to our second finding.    Most of the department's agencies were using inspections or audits as a primary way of overseeing their high-containment labs. But they were often not routinely reporting inspection results to senior officials.    Getting these inspection results to senior officials is important because these results can be used to identify trends and systemic safety issues and ensure that needed improvements are made across all the labs.    Finally, at the time of our review, DoD and HHS were making some progress in implementing recommendations from previous laboratory safety reviews that they conducted after the 2014 and 2015 safety lapses.    However, we found that DoD and CDC had not developed time frames for implementing some of these recommendations and without time frames DoD and CDC will be limited in their ability to track progress towards implementing these needed improvements.    We made a total of 33 recommendations to the Federal departments and agencies with these high-containment labs to ensure that they have comprehensive and up to date policies as well as stronger oversight mechanisms at their labs.    There was brought agreement by the eight departments with our recommendations and several have already begun taking actions to address them.    In closing, I would like to note that our report that we are discussing today is the latest in a body of work that GAO has developed over the last 10 years on the Federal oversight of high-containment laboratories.    We continue to monitor this issue by drawing on expertise from across our agency including our health care experts, our chief scientists and experts from my own group, the science and technology area.    As you know, we are conducting additional work for the subcommittee specifically looking at the inactivation of pathogens in high-containment labs and we expect to issue that report to you in the next several months.    Thank you, Chairman Murphy, and members of the subcommittee for holding this hearing and continuing your oversight of this important issue.    This concludes my prepared remarks. I would be pleased to respond to any questions you may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you, Mr. Neumann.    Dr. Tabak, you're recognized for 5 minutes. Again, pull the microphone very close to you so we can hear.</t>
   </si>
   <si>
-    <t>Tabak</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Tabak. Good morning, Mr. Chairman, Ranking Member Castor and distinguished members of the subcommittee. It is an honor to appear before you today to discuss how the NIH implements biosafety and biosecurity measures for high-containment laboratories.    I know I speak for Dr. Collins when I say that our concerns for safety must equal our passion for research. I can attest that senior leadership at the NIH is committed to the principle that safety lapses provide concrete opportunities for thorough critical self-assessment and self-improvement.    NIH has an important mission to conduct research that will lead to the development of treatments, diagnostics and vaccines to address public health needs including medical counter measures.    The study of biologic-select agents and toxins is necessary to develop new interventions with the potential to save millions of lives. NIH also recognizes the importance of ensuring that the research is conducted in the safest manner possible.    In the summer of 2014, six sealed decades-old ampules of smallpox were found in a cold storage room in an FDA laboratory building located on the NIH campus. The presence of smallpox was alarming to the entire NIH community and initiated much action on the part of NIH leadership.    Upon making this discovery, all of the proper notifications and security steps were taken. The CDC and the FBI were contacted and joint custody of the ampules was transferred to the CDC.    NIH has established protocols and procedures which included proper training regarding select agent handling ensured that at no time was anyone on campus or the public at risk.    NIH takes this incident very seriously and we have implemented new policies and procedures to prevent such an event from occurring again.    First, NIH identified and inventoried all potential hazardous biological material stored in all NIH-owned and leased facilities. During this sweep, which took place from July through September 2014, nearly 35 million samples were inventoried.    Additionally, NIH and other Federal agencies launched a National biosafety stewardship month. Extramurally funded institutions were asked to voluntarily join the Federal laboratories and reviewing their procedures, training and inventories of infectious agents and toxins.    Longer term, NIH has strengthened our inventory management controls. We have developed and implemented the potentially hazardous biological material management plan which addresses accountability at all levels of NIH. The plan establishes a mandatory centralized database of all potentially hazardous biological materials as well as procedures for annual updates of inventories and random audits of laboratories' hazardous biological holdings.    Each institute and center was required to appoint an individual to be responsible for common shared use and storage areas and there are new policies in place requiring participation of personnel who work in secure select agent laboratories.    In February 2015, the external laboratory safety work group to the CDC advisory committee to the director reviewed our policies and practices.    The ELSW affirmed that NIH's response to the discovery of smallpox was prototypical and that NIH had implemented all of the recommendations made. The report states, and I quote, ``The NIH intramural DOHS program is a model program for institutions supporting extramural NIH research as well as for other institutions and agencies.''    The GAO review of high-containment laboratories that we meet here today to discuss found NIH's policies for laboratory management to be comprehensive. NIH implemented all of the GAO's recommendations and we addressed all of the six elements that the GAO identified as being key.    In closing, as principal deputy director of the NIH, I can assure this subcommittee that the senior leadership at NIH took appropriate action in 2014 and continues to act today to ensure the safety of the public and the scientist whose mission it is to find new ways to enhance health, lengthen life and reduce illness and disability.    We remain committed to preserving the public's trust and NIH-supported research activities through best safety practices and strong leadership.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -103,18 +91,12 @@
     <t xml:space="preserve">    Mr. Murphy. OK. But that was left out. I think that's critical for your testimony and I hope you would amend it to say that they were still alive.    Dr. Monroe, you are recognized for 5 minutes, please.</t>
   </si>
   <si>
-    <t>Monroe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Monroe. Good morning, Chairman Murphy, Representative Castor, other members of the subcommittee. Thank you for the opportunity to testify before you today on CDC's ongoing effort to strengthen the quality and safety of our laboratories.    I'm Dr. Steve Monroe, associate director for laboratory science and safety at CDC. In this new position, I serve as the single point of accountability for laboratory science and safety and I report directly to the CDC director, Tom Frieden.    I come to this role with 29 years of experience as a microbiologist at the agency. CDC laboratories remain an indispensable link in protecting the public's health.    Recently, we were pleased to welcome Chairman Murphy to our NIOSH facility in Pittsburgh and Ranking Member DeGette to our vector-borne diseases facility in Colorado where she saw first hand our frontline laboratory staff working 24/7 to address the ongoing Zika crisis.    Ensuring that all our laboratory work is performed with the utmost commitment to quality and to the safety of our workers and the community is and will remain of top priority for the agency.    In July 2014, Dr. Frieden testified before this subcommittee in the wake of a number of unacceptable safety incidents at CDC laboratories. Following the incident, CDC received multiple rigorous reviews of the agency's laboratory safety practices.    We continue to implement and track progress on each of the more than 200 recommendations we received through that process. While more work remains to be done, the progress made to date has been significant, particularly in CDC's laboratory oversight structure and approach.    My office oversees safety at all CDC laboratories. This includes overseeing our select agent compliance but it's distinct from CDC's Division of Select Agents and Toxins, which along with USDA regulates laboratories as part of the Federal select agent program.    My office ensures that CDC complies with select agent regulations in our own laboratories but it does not have authority over and is not involved in overseeing or enforcing the Federal select agency program.    An integral part of our reforms has been to foster a culture of safety in CDC's laboratories. Transparency and reporting are fundamental to such a culture.    One of my first acts in this role was to issue an agency wide memorandum to reiterate CDC's requirement for staff to report all safety issues and to provide clear direction on how to do so.    Another key achievement was the creation of the Laboratory Safety Review Board which is reviewing and approving all protocols from the transfer of biological materials out of BSL-3 and BSL-4 high-containment laboratories, a key issue identified in the 2014 incident.    CDC also established the laboratory leadership service, a fellowship program that prepares early career scientists to become future laboratory leaders.    Finally, CDC is committed to advancing the science of safety, applying the same rigorous scientific methods to laboratory safety that we use to confront threats to the public's health.    Last month, my office launched an intramural research fund to support agency laboratories in pursuing innovative solutions to laboratory safety challenges.    Last month, we saw a test of CDC's new laboratory oversight structure when a CDC worker was diagnosed with a salmonella infection that was likely acquired from their work in a CDC BSL-2 laboratory.    The worker has fully recovered and no other people appear to have been exposed. While the exposure should not have happened, CDC responded to this incident with urgency and transparency.    We will continue to strive to prevent incidents from happening. But if they do, we will do everything we can to identify and address the factor that contribute to the incident and do so swiftly, comprehensively and openly.    GAO's report on high-containment laboratories provides additional and valuable feedback on areas where CDC is succeeding and where continued improvements are required.    We already hard at work to address the issues GAO highlighted including finalizing our time lines for the remaining safety recommendations and working with HHS and our sister agencies on the Biosafety and Biosecurity Coordinating Council which will address some of the policies called for by     For CDC, laboratory safety is not a singular objective that can be checked off once completed. Rather, it is an ongoing commitment to a healthy and functioning culture of safety where monitoring and reporting are valued, issues are rapidly and openly addressed and efficient systems are in place to prevent a safety issue from becoming a safety incident.    Since Dr. Frieden testified before this subcommittee, CDC has made great progress in advancing this culture of safety at our laboratories. But more work remains to be done.    While the risks of working with these pathogens can never be completely eliminated, we will continue to reduce risks wherever possible. This includes diligently working to address the recommendations from the GAO.    Thank you for the opportunity to testify and I would be glad to answer any questions you may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you, Dr. Monroe.    Dr. Pillai, you're recognized for 5 minutes. Turn the microphone on and bring it up very close to you, please. Even closer. Get a lot closer. That's good.</t>
   </si>
   <si>
-    <t>Pillai</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Pillai. Good morning, Chairman Murphy, Ranking Member Castor and members of the subcommittee. I'm Dr. Segaran Pillai, director of the Office of Laboratory Science and Safety within the Office of the Commissioner at the FDA within the Department of Health and Human Services.    Thank you for the opportunity to appear before you today to discuss FDA's efforts to ensure the safety and security of our laboratories and the people who work in them. FDA's laboratories provide a critical role in fulfilling FDA's regulatory mission.    FDA's laboratories, like all laboratories, must comply with all applicable Federal, State, and local safety requirements.    To ensure this, the agency is deeply committed to ensuring compliance with relevant laws and regulations through a combination of training, issuance of specific policies and procedures, appropriate oversight by the safety offices in the centers and by fostering an agency wide culture of safety and security in our laboratories.    Upon discovery of the vials of Variola at an FDA laboratory located on the NIH campus in July of 2014, the FDA commissioner established the Laboratory Safety Practices and Policy working group.    The goal of the work group was to lead a careful and deliberate review of FDA's biosafety and biosecurity programs and to identify and implement methods to improve laboratory safety practices across the agency.    One of the first key actions of the working group was to complete a clean sweep, a full visual audit of all storage areas and laboratories. The vast majority of the FDA's roughly 670,000 vials of samples were properly stored.    However, there were two instances where select agents were improperly stored in secured locations. In both cases, the CDC's division for select agents and toxins was notified and the materials were destroyed.    In May of 2015 members of the advisory committee to the director of CDC's External Laboratory Safety working group conducted a thorough onsite review of the FDA's laboratory safety policies and procedures.    During this three-day visit, the work group met with key FDA officials to discuss the circumstances surrounding the discovery of the Variola samples on the NIH campus and review the policy elements of biosecurity and inventory control, laboratory safety training programs, laboratory security operations as well as the compliance programs.    The resulting report released in July the 10th, 2015 contained eight observations that included a total of 30 recommendations. We have implemented many of those recommendations and are making steady progress on the remaining recommendations that resulted from the review in order to build and strengthen FDA's comprehensive laboratory safety and security program.    In addition, FDA continues to work diligently to centralize appropriate laboratory safety practices including standardizing policies, procedures and defining inventory policies and audit procedures.    To gauge the cultural safety at FDA, we held a series of 13 focus groups with laboratory staff throughout the agency. The focus of the focus groups was to raise safety awareness and identify trends and risk areas.    Accountability, safety culture, communication and training were identified at critical areas by the focus groups. One of the key findings was in general staff was not afraid of reprisal if they were to report safety-related issues or concerns.    FDA is also planning additional ways to engage laboratory staff in a variety of settings including focus groups, town hall meetings and other forums to provide a positive and productive outlet for employees to communicate their thoughts and ideas for improving safety and security at the FDA laboratories.    An integral way to promote cultural safety and security and ensure compliance with legal and regulatory requirements is through training. FDA is in the process of implementing a core curriculum for biosafety and biosecurity training for all FDA personnel working in the biomedical research laboratories.    This cross cutting agency work safety training program will instill and strengthen a culture of safety and compliance throughout the agency.    In addition to the above, FDA also issued a new agency wide inventory control and management policy for biological agents and toxins.    Using a central electronic inventory control and management system will allow the agency to provide efficient oversight of all biological agents and toxins located at the centers and offices.    The recommendations from both the Laboratory Safety working group and GAO reports further validates our strategic approach and provides essential feedback for FDA as we continue to enhance our laboratory safety and security practices and policies.    The Government Accounting Offices reported that as of December 2015, FDA has met five of the six elements and policies for managing biological agents in the high-containment laboratories.    Although FDA's currently policy did not provide for laboratory incidents to be reported to the senior agency officials, incident reporting does occur within each of the FDA centers and offices and an analysis of the root cause is performed annually.    I'm also working closely with the FDA's safety offices to develop a more comprehensive reporting mechanism to capture laboratory accidents, incidents, near misses and laboratory-acquired infections.    This new reporting mechanism will be implemented in the coming months and will require all centers and offices to report all such events to my office.    The FDA's Office of Laboratory Science and Safety will establish an official FDA wide policy and work with the HHS biosafety and biosecurity coordinating council to recommend appropriate criteria and procedures for reporting incidents to the HHS leadership in a timely manner.    Since the discovery of the vials of Variola, FDA senior officials have taken direct and definitive actions to improve FDA's laboratory safety and security policies, practices and to foster a culture of safety and security across the agency.    I want to assure you that FDA stands fully committed to enhancing the safety and security to protect both our staff and the public. No regulations or guidelines can ensure safe----</t>
   </si>
   <si>
@@ -238,9 +220,6 @@
     <t>412487</t>
   </si>
   <si>
-    <t>David B. McKinley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McKinley. I thank you, Mr. Chairman.    Mr. Neumann, if I could spend a little time on your report. You've got a chart on Page 5 of the six elements that you were referring to in compliance.    I know that they're not all the same in weight. So I don't know which ones are more important than others in compliance. Would you suggest to us which are the ones that we should be spending more attention to of those six elements?    Unless you're going to tell me they're all equal, which I doubt.</t>
   </si>
   <si>
@@ -331,9 +310,6 @@
     <t>412485</t>
   </si>
   <si>
-    <t>H. Morgan Griffith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Griffith. Thank you very much, Mr. Chairman. Thank you all for participating in this hearing today.    Dr. Tabak, I understand that the historical collection that contains the smallpox vials where there was a problem that had been previously discussed is not the only historical collection at NIH.    In fact, in 2002 or 2003, NIH registered a historical collection that included plague and Burkholderia samples using the information listed on labels for sealed envelopes. Isn't that correct?</t>
   </si>
   <si>
@@ -406,9 +382,6 @@
     <t>412539</t>
   </si>
   <si>
-    <t>Susan W. Brooks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Brooks. Thank you, Mr. Chairman.    As the panelists might know, yesterday both NATO and the European Union intelligence officials indicated that there are, quote, ``justified concerns,'' end quote, that ISIS is working on obtaining biological material needed to carry out an attack.    With persistent analysis like this supporting the notion that terrorists are actively looking to acquire a weapon of mass destruction, I certainly hope that our Government will redouble our efforts in protecting sensitive materials from getting into the wrong hands.    We also know that in October it was revealed that a 26-year-old Moroccan-born man who had worked in a sensitive area in a nuclear power plant in Belgium died in the spring while fighting for ISIS.    This terrorist had passed a background check and had access to a secure area where the nuclear reactor is located. Obviously, it can happen in the biological space as well. We shouldn't forget that the perpetrator of the '01 anthrax incident was a scientist who worked at the Government's biodefense labs at Fort Derrick.    I bring that up because we can have all the policies and procedures in place and we can have taken corrective actions and so forth. But I'm curious, Mr. Neumann, did you and GAO look at the security level of personnel in your report?</t>
   </si>
   <si>
@@ -472,9 +445,6 @@
     <t>412550</t>
   </si>
   <si>
-    <t>Richard Hudson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hudson. Thank you, Mr. Chairman, and thank you to the panel for being here.    Dr. Pillai, the NIH office that had the smallpox boxes was reassigned to the FDA in 1972. Why didn't the FDA do any sort of inventory over the room when it was transferred to control at that point or at any time from 1972 to 2014.    It seems to me that one simple inventory, something that businesses back in my district do every year, would have caught this mistake.</t>
   </si>
   <si>
@@ -530,9 +500,6 @@
   </si>
   <si>
     <t>412568</t>
-  </si>
-  <si>
-    <t>Markwayne Mullin</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Mullin. Thank you, Mr. Chairman. I'm going to follow up on your questions, too.    Even after we got the information that anthrax had been basically not kept good records on and it had been shipped around, being used for experiments, people not knowing where they're at.    Once you discovered this you decided to do an inventory and look for anthrax, if any more had taken place. And specifically, NIH limited the search to only anthrax. Why was this?</t>
@@ -1183,11 +1150,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1209,11 +1174,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1233,13 +1196,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1261,11 +1222,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1287,11 +1246,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1311,13 +1268,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1339,11 +1294,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1363,13 +1316,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1391,11 +1342,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1415,13 +1364,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1443,11 +1390,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1467,13 +1412,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1495,11 +1438,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1519,13 +1460,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1547,11 +1486,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1571,13 +1508,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1599,11 +1534,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1623,13 +1556,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1651,11 +1582,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1675,13 +1604,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
         <v>32</v>
-      </c>
-      <c r="H21" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1703,11 +1630,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1729,11 +1654,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1755,11 +1678,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1781,11 +1702,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1807,11 +1726,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1833,11 +1750,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1859,11 +1774,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1885,11 +1798,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1909,13 +1820,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1937,11 +1846,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1961,13 +1868,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1989,11 +1894,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2013,13 +1916,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2041,11 +1942,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2065,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2093,11 +1990,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2117,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2145,11 +2038,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2169,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2197,11 +2086,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2221,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2249,11 +2134,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2273,13 +2156,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2299,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2325,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2351,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2377,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2403,13 +2276,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2429,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2455,13 +2324,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2481,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2507,13 +2372,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2535,11 +2398,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2559,13 +2420,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2587,11 +2446,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2611,13 +2468,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>73</v>
-      </c>
-      <c r="G57" t="s">
-        <v>74</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2637,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2663,13 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>73</v>
-      </c>
-      <c r="G59" t="s">
-        <v>74</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2689,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2715,13 +2564,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>73</v>
-      </c>
-      <c r="G61" t="s">
-        <v>74</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2741,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2767,13 +2612,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>73</v>
-      </c>
-      <c r="G63" t="s">
+        <v>67</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
         <v>74</v>
-      </c>
-      <c r="H63" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2793,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2819,13 +2660,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>73</v>
-      </c>
-      <c r="G65" t="s">
+        <v>67</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
         <v>74</v>
-      </c>
-      <c r="H65" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2845,13 +2684,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2871,13 +2708,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>73</v>
-      </c>
-      <c r="G67" t="s">
-        <v>74</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2897,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2923,13 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>73</v>
-      </c>
-      <c r="G69" t="s">
-        <v>74</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2949,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2975,13 +2804,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>73</v>
-      </c>
-      <c r="G71" t="s">
-        <v>74</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3001,13 +2828,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3027,13 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>73</v>
-      </c>
-      <c r="G73" t="s">
-        <v>74</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3053,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3079,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>73</v>
-      </c>
-      <c r="G75" t="s">
-        <v>74</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3105,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3131,13 +2948,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>73</v>
-      </c>
-      <c r="G77" t="s">
-        <v>74</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3157,13 +2972,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3183,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>73</v>
-      </c>
-      <c r="G79" t="s">
-        <v>74</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3209,13 +3020,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3235,13 +3044,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>73</v>
-      </c>
-      <c r="G81" t="s">
-        <v>74</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3261,13 +3068,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3287,13 +3092,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>73</v>
-      </c>
-      <c r="G83" t="s">
-        <v>74</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3313,13 +3116,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3339,13 +3140,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>73</v>
-      </c>
-      <c r="G85" t="s">
-        <v>74</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3367,11 +3166,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3391,13 +3188,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>104</v>
-      </c>
-      <c r="G87" t="s">
-        <v>105</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3417,13 +3212,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3443,13 +3236,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>104</v>
-      </c>
-      <c r="G89" t="s">
-        <v>105</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3469,13 +3260,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3495,13 +3284,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>104</v>
-      </c>
-      <c r="G91" t="s">
-        <v>105</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3521,13 +3308,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3547,13 +3332,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>104</v>
-      </c>
-      <c r="G93" t="s">
-        <v>105</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3573,13 +3356,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>20</v>
-      </c>
-      <c r="G94" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3599,13 +3380,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>104</v>
-      </c>
-      <c r="G95" t="s">
+        <v>97</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
         <v>105</v>
-      </c>
-      <c r="H95" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3625,13 +3404,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
-      </c>
-      <c r="G96" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3651,13 +3428,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>104</v>
-      </c>
-      <c r="G97" t="s">
-        <v>105</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3677,13 +3452,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
-      </c>
-      <c r="G98" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3703,13 +3476,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>104</v>
-      </c>
-      <c r="G99" t="s">
-        <v>105</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3729,13 +3500,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3755,13 +3524,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>104</v>
-      </c>
-      <c r="G101" t="s">
-        <v>105</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3781,13 +3548,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>20</v>
-      </c>
-      <c r="G102" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3807,13 +3572,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>104</v>
-      </c>
-      <c r="G103" t="s">
-        <v>105</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3833,13 +3596,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>20</v>
-      </c>
-      <c r="G104" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3859,13 +3620,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>104</v>
-      </c>
-      <c r="G105" t="s">
-        <v>105</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3885,13 +3644,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>20</v>
-      </c>
-      <c r="G106" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3911,13 +3668,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>104</v>
-      </c>
-      <c r="G107" t="s">
-        <v>105</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3937,13 +3692,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>20</v>
-      </c>
-      <c r="G108" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3963,13 +3716,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>104</v>
-      </c>
-      <c r="G109" t="s">
-        <v>105</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3991,11 +3742,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4015,13 +3764,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>129</v>
-      </c>
-      <c r="G111" t="s">
-        <v>130</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4041,13 +3788,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>20</v>
-      </c>
-      <c r="G112" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4067,13 +3812,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>129</v>
-      </c>
-      <c r="G113" t="s">
-        <v>130</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4093,13 +3836,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>20</v>
-      </c>
-      <c r="G114" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4119,13 +3860,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>129</v>
-      </c>
-      <c r="G115" t="s">
-        <v>130</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4145,13 +3884,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>20</v>
-      </c>
-      <c r="G116" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4171,13 +3908,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>129</v>
-      </c>
-      <c r="G117" t="s">
-        <v>130</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4197,13 +3932,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>20</v>
-      </c>
-      <c r="G118" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4223,13 +3956,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>129</v>
-      </c>
-      <c r="G119" t="s">
+        <v>121</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
         <v>130</v>
-      </c>
-      <c r="H119" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4249,13 +3980,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>20</v>
-      </c>
-      <c r="G120" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4275,13 +4004,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>129</v>
-      </c>
-      <c r="G121" t="s">
-        <v>130</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4301,13 +4028,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>20</v>
-      </c>
-      <c r="G122" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4327,13 +4052,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>129</v>
-      </c>
-      <c r="G123" t="s">
-        <v>130</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4353,13 +4076,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>20</v>
-      </c>
-      <c r="G124" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4379,13 +4100,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>129</v>
-      </c>
-      <c r="G125" t="s">
-        <v>130</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4405,13 +4124,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>20</v>
-      </c>
-      <c r="G126" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4431,13 +4148,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>129</v>
-      </c>
-      <c r="G127" t="s">
-        <v>130</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4459,11 +4174,9 @@
       <c r="F128" t="s">
         <v>11</v>
       </c>
-      <c r="G128" t="s">
-        <v>12</v>
-      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4483,13 +4196,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>20</v>
-      </c>
-      <c r="G129" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4511,11 +4222,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4535,13 +4244,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>151</v>
-      </c>
-      <c r="G131" t="s">
-        <v>152</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4561,13 +4268,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>20</v>
-      </c>
-      <c r="G132" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4587,13 +4292,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>151</v>
-      </c>
-      <c r="G133" t="s">
-        <v>152</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4613,13 +4316,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>20</v>
-      </c>
-      <c r="G134" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4639,13 +4340,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>151</v>
-      </c>
-      <c r="G135" t="s">
-        <v>152</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4665,13 +4364,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>20</v>
-      </c>
-      <c r="G136" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4691,13 +4388,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>151</v>
-      </c>
-      <c r="G137" t="s">
-        <v>152</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4717,13 +4412,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>20</v>
-      </c>
-      <c r="G138" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4743,13 +4436,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
+        <v>142</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
         <v>151</v>
-      </c>
-      <c r="G139" t="s">
-        <v>152</v>
-      </c>
-      <c r="H139" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4769,13 +4460,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>20</v>
-      </c>
-      <c r="G140" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4795,13 +4484,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>151</v>
-      </c>
-      <c r="G141" t="s">
-        <v>152</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4823,11 +4510,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4847,13 +4532,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>20</v>
-      </c>
-      <c r="G143" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4875,11 +4558,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4899,13 +4580,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>20</v>
-      </c>
-      <c r="G145" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4927,11 +4606,9 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" t="s">
-        <v>12</v>
-      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4951,13 +4628,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>20</v>
-      </c>
-      <c r="G147" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4979,11 +4654,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5003,13 +4676,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>171</v>
-      </c>
-      <c r="G149" t="s">
-        <v>172</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5029,13 +4700,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>20</v>
-      </c>
-      <c r="G150" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5055,13 +4724,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>171</v>
-      </c>
-      <c r="G151" t="s">
-        <v>172</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5081,13 +4748,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>20</v>
-      </c>
-      <c r="G152" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5107,13 +4772,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>171</v>
-      </c>
-      <c r="G153" t="s">
-        <v>172</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5133,13 +4796,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>20</v>
-      </c>
-      <c r="G154" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5159,13 +4820,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>171</v>
-      </c>
-      <c r="G155" t="s">
-        <v>172</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5185,13 +4844,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>20</v>
-      </c>
-      <c r="G156" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5211,13 +4868,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>171</v>
-      </c>
-      <c r="G157" t="s">
-        <v>172</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5237,13 +4892,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>20</v>
-      </c>
-      <c r="G158" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5263,13 +4916,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>171</v>
-      </c>
-      <c r="G159" t="s">
+        <v>161</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
         <v>172</v>
-      </c>
-      <c r="H159" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5289,13 +4940,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>20</v>
-      </c>
-      <c r="G160" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5315,13 +4964,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>171</v>
-      </c>
-      <c r="G161" t="s">
-        <v>172</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5341,13 +4988,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>20</v>
-      </c>
-      <c r="G162" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5367,13 +5012,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>171</v>
-      </c>
-      <c r="G163" t="s">
-        <v>172</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5393,13 +5036,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>20</v>
-      </c>
-      <c r="G164" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5419,13 +5060,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>171</v>
-      </c>
-      <c r="G165" t="s">
-        <v>172</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5445,13 +5084,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>20</v>
-      </c>
-      <c r="G166" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5471,13 +5108,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>171</v>
-      </c>
-      <c r="G167" t="s">
-        <v>172</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5497,13 +5132,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>20</v>
-      </c>
-      <c r="G168" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5523,13 +5156,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>171</v>
-      </c>
-      <c r="G169" t="s">
-        <v>172</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5549,13 +5180,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>20</v>
-      </c>
-      <c r="G170" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5575,13 +5204,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>171</v>
-      </c>
-      <c r="G171" t="s">
-        <v>172</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5601,13 +5228,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>20</v>
-      </c>
-      <c r="G172" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5627,13 +5252,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>171</v>
-      </c>
-      <c r="G173" t="s">
-        <v>172</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5653,13 +5276,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>20</v>
-      </c>
-      <c r="G174" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5679,13 +5300,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>171</v>
-      </c>
-      <c r="G175" t="s">
-        <v>172</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5707,11 +5326,9 @@
       <c r="F176" t="s">
         <v>11</v>
       </c>
-      <c r="G176" t="s">
-        <v>12</v>
-      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5731,13 +5348,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>129</v>
-      </c>
-      <c r="G177" t="s">
-        <v>130</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5757,13 +5372,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>129</v>
-      </c>
-      <c r="G178" t="s">
-        <v>130</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5783,13 +5396,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>129</v>
-      </c>
-      <c r="G179" t="s">
-        <v>130</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5811,11 +5422,9 @@
       <c r="F180" t="s">
         <v>11</v>
       </c>
-      <c r="G180" t="s">
-        <v>12</v>
-      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5835,13 +5444,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>20</v>
-      </c>
-      <c r="G181" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5863,11 +5470,9 @@
       <c r="F182" t="s">
         <v>11</v>
       </c>
-      <c r="G182" t="s">
-        <v>12</v>
-      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5887,13 +5492,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>20</v>
-      </c>
-      <c r="G183" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5915,11 +5518,9 @@
       <c r="F184" t="s">
         <v>11</v>
       </c>
-      <c r="G184" t="s">
-        <v>12</v>
-      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5939,13 +5540,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>20</v>
-      </c>
-      <c r="G185" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5967,11 +5566,9 @@
       <c r="F186" t="s">
         <v>11</v>
       </c>
-      <c r="G186" t="s">
-        <v>12</v>
-      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5991,13 +5588,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>20</v>
-      </c>
-      <c r="G187" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6019,11 +5614,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>12</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6043,13 +5636,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>20</v>
-      </c>
-      <c r="G189" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6071,11 +5662,9 @@
       <c r="F190" t="s">
         <v>11</v>
       </c>
-      <c r="G190" t="s">
-        <v>12</v>
-      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6097,11 +5686,9 @@
       <c r="F191" t="s">
         <v>11</v>
       </c>
-      <c r="G191" t="s">
-        <v>12</v>
-      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6121,13 +5708,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>20</v>
-      </c>
-      <c r="G192" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6149,11 +5734,9 @@
       <c r="F193" t="s">
         <v>11</v>
       </c>
-      <c r="G193" t="s">
-        <v>12</v>
-      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6173,13 +5756,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>20</v>
-      </c>
-      <c r="G194" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6201,11 +5782,9 @@
       <c r="F195" t="s">
         <v>11</v>
       </c>
-      <c r="G195" t="s">
-        <v>12</v>
-      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6225,13 +5804,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>20</v>
-      </c>
-      <c r="G196" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6253,11 +5830,9 @@
       <c r="F197" t="s">
         <v>11</v>
       </c>
-      <c r="G197" t="s">
-        <v>12</v>
-      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6277,13 +5852,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>20</v>
-      </c>
-      <c r="G198" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6305,11 +5878,9 @@
       <c r="F199" t="s">
         <v>11</v>
       </c>
-      <c r="G199" t="s">
-        <v>12</v>
-      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6329,13 +5900,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>20</v>
-      </c>
-      <c r="G200" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6357,11 +5926,9 @@
       <c r="F201" t="s">
         <v>11</v>
       </c>
-      <c r="G201" t="s">
-        <v>12</v>
-      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6381,13 +5948,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>20</v>
-      </c>
-      <c r="G202" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6409,11 +5974,9 @@
       <c r="F203" t="s">
         <v>11</v>
       </c>
-      <c r="G203" t="s">
-        <v>12</v>
-      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6433,13 +5996,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>20</v>
-      </c>
-      <c r="G204" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6461,11 +6022,9 @@
       <c r="F205" t="s">
         <v>11</v>
       </c>
-      <c r="G205" t="s">
-        <v>12</v>
-      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6485,13 +6044,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>20</v>
-      </c>
-      <c r="G206" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6513,11 +6070,9 @@
       <c r="F207" t="s">
         <v>11</v>
       </c>
-      <c r="G207" t="s">
-        <v>12</v>
-      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6537,13 +6092,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>20</v>
-      </c>
-      <c r="G208" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6565,11 +6118,9 @@
       <c r="F209" t="s">
         <v>11</v>
       </c>
-      <c r="G209" t="s">
-        <v>12</v>
-      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6589,13 +6140,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>20</v>
-      </c>
-      <c r="G210" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6617,11 +6166,9 @@
       <c r="F211" t="s">
         <v>11</v>
       </c>
-      <c r="G211" t="s">
-        <v>12</v>
-      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6641,13 +6188,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>20</v>
-      </c>
-      <c r="G212" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6669,11 +6214,9 @@
       <c r="F213" t="s">
         <v>11</v>
       </c>
-      <c r="G213" t="s">
-        <v>12</v>
-      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6693,13 +6236,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>20</v>
-      </c>
-      <c r="G214" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6721,11 +6262,9 @@
       <c r="F215" t="s">
         <v>11</v>
       </c>
-      <c r="G215" t="s">
-        <v>12</v>
-      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6745,13 +6284,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>20</v>
-      </c>
-      <c r="G216" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6773,11 +6310,9 @@
       <c r="F217" t="s">
         <v>11</v>
       </c>
-      <c r="G217" t="s">
-        <v>12</v>
-      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6797,13 +6332,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>20</v>
-      </c>
-      <c r="G218" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6825,11 +6358,9 @@
       <c r="F219" t="s">
         <v>11</v>
       </c>
-      <c r="G219" t="s">
-        <v>12</v>
-      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6849,13 +6380,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>20</v>
-      </c>
-      <c r="G220" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6877,11 +6406,9 @@
       <c r="F221" t="s">
         <v>11</v>
       </c>
-      <c r="G221" t="s">
-        <v>12</v>
-      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6901,13 +6428,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>20</v>
-      </c>
-      <c r="G222" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6929,11 +6454,9 @@
       <c r="F223" t="s">
         <v>11</v>
       </c>
-      <c r="G223" t="s">
-        <v>12</v>
-      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6953,13 +6476,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>20</v>
-      </c>
-      <c r="G224" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6981,11 +6502,9 @@
       <c r="F225" t="s">
         <v>11</v>
       </c>
-      <c r="G225" t="s">
-        <v>12</v>
-      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7005,13 +6524,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>20</v>
-      </c>
-      <c r="G226" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7033,11 +6550,9 @@
       <c r="F227" t="s">
         <v>11</v>
       </c>
-      <c r="G227" t="s">
-        <v>12</v>
-      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7057,13 +6572,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>20</v>
-      </c>
-      <c r="G228" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7085,11 +6598,9 @@
       <c r="F229" t="s">
         <v>11</v>
       </c>
-      <c r="G229" t="s">
-        <v>12</v>
-      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7109,13 +6620,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>20</v>
-      </c>
-      <c r="G230" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7137,11 +6646,9 @@
       <c r="F231" t="s">
         <v>11</v>
       </c>
-      <c r="G231" t="s">
-        <v>12</v>
-      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7161,13 +6668,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>20</v>
-      </c>
-      <c r="G232" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7189,11 +6694,9 @@
       <c r="F233" t="s">
         <v>11</v>
       </c>
-      <c r="G233" t="s">
-        <v>12</v>
-      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7213,13 +6716,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>20</v>
-      </c>
-      <c r="G234" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7241,11 +6742,9 @@
       <c r="F235" t="s">
         <v>11</v>
       </c>
-      <c r="G235" t="s">
-        <v>12</v>
-      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7267,11 +6766,9 @@
       <c r="F236" t="s">
         <v>11</v>
       </c>
-      <c r="G236" t="s">
-        <v>12</v>
-      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20712.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20712.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="265">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400285</t>
   </si>
   <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Murphy. Good morning, and welcome to the Oversight and Investigation Subcommittee of Energy and Commerce hearing on ``How Secure are U.S. Bioresearch Labs: Preventing the Next Safety Lapse,'' which I think I can dub ``Overturning the Culture of Compliancy.''    Because this is the third time in as many years that this subcommittee has held a hearing on the Federal Select Agent Program and the Federal Government's high-containment laboratories.    And each time, a panel of witnesses appear before us to testify about changes made in response to one failure or another.    Two years ago, CDC Director Tom Frieden testified about changes made at the CDC after failing to follow safety procedures, which consequently potentially exposed dozens of CDC employees to anthrax.    Dr. Frieden told us then that the CDC was implementing every step possible to make sure that the problems are addressed comprehensively in order to protect our own workforce and to strengthen the culture of safety and to continue our work protecting Americans.    And I might add that that echoed a statement he had made perhaps a year or so before on the same issue, saying that he was going to impose other things to change the culture.    But last year, then, the Deputy Assistant Secretary of Defense for Chemical and Biological Defense came before us to explain how at least 192 labs across the world received live anthrax from the Dugway Proving Ground, an Army lab in Utah. The Army undertook a comprehensive review of the incident and the deputy secretary told us that the department was ``committed to ensuring that this doesn't occur again,'' and that last statement is in quotes.    Sweeping improvements and policy changes only work if the policies are effective and, in this area, past policy reviews have not brought about the changes necessary to improve safety.    For that reason, Ms. DeGette and myself, along with Chairman Upton and Ranking Member Pallone, asked the GAO to evaluate the biosafety, biosecurity and oversight policies for the eight departments and 15 component agencies that own and operate the Federal Government's high-containment laboratories.    GAO has been issuing recommendations for years on the need for better policies and standards at high-containment labs, recommendations that have not been implemented. So the agency was well-positioned to receive our request.    GAO found that while the departments and agencies have improved on their biosecurity procedures in recent years, comprehensive policies and better oversight of the labs are still needed.    High-containment laboratories, which store the most dangerous pathogens, must have tight inventory control, rigorous training and required incidence reporting, and agencies and departments must have strong oversight of their laboratories with accountability for those who fail to follow the policies.    While GAO has been doing its work, the committee has been conducting its own review into the discovery of smallpox vials at the NIH in 2014. The preliminary findings of the majority staff are discussed in a supplemental memorandum released yesterday.    We found a number of flash points here where, if NIH or FDA had done just a little more than what their policies required or thought outside the box just a little bit, those agencies could have discovered the smallpox vials years earlier.    For example, the NIH experienced a major event in 2011 when it learned that a researcher received an unauthorized transfer of antibiotic resistant plague specimens, and in 2012 when it discovered unregistered antibiotic-resistant anthrax included at an FDA lab in this very same building where the smallpox was discovered 2 years later.    The 2012 discovery was prompted by a disclosure of two investigators during a retraining exercise prompted by the 2011 discovery by the CDC's Division of Select Agents and Toxins not by any investigative work on the part of the NIH and the 2012 discovery resulted in the CDC putting NIH on a Performance Improvement Plan.    These discoveries, including two different dangerous pathogens, should have spurred NIH and FDA to conduct a comprehensive sweep of all laboratories and a comprehensive review of its policies at the time.    But they didn't. When we informed NIH and FDA of our findings, we found agencies still reluctant to acknowledge the full extent of their failings.    NIH did not even acknowledge its failings in how it registered into the Federal Select Agent Program, a historical collection of select agent samples held in sealed envelopes unopened since 1960.    NIH registered the materials without opening the envelopes. The agency did not confirm the materials inside the envelopes or even verify that the samples were still secure, and they registered these materials not once, but twice, without opening the envelopes.    When they finally did open the envelopes, they discovered seven additional vials of one select agent than previously reported. These failures just defy common sense.    This is a culture of complacency, and it shows that it is not enough to change the policies. We must also change the culture at NIH.    While the Department of Defense is holding 12 people accountable for the factors that led to the Dugway shipments, in contrast HHS and its agencies have not been fully accountable and transparent with the committee on disciplinary and personnel actions resulting from lab safety incidents.    For example, the committee requested documents from the CDC as part of our investigation regarding the four instances of improperly stored anthrax at NIH. Unfortunately, the CDC produced redacted documents, blacking out key information.    There was no legal basis for these redactions and CDC offered no explanation. This type of response is designed to delay and stymie congressional oversight on behalf of the American people and this committee will not stand for that. When we request documents, we expect unredacted documents.    If these agencies are not being forthcoming with this committee and this Congress, then they are certainly not being forthcoming with the American people. For all the CDC rhetoric about transparency, redactions of key details in requested investigative documents prove otherwise.    We all deserve better. Neither NIH nor FDA ever conducted an internal review of the smallpox incident along the lines of the reviews conducted by the CDC or the DoD, deferring instead to an outside review by the CDC and FBI.    I urge these agencies to initiate internal reviews of their own failings leading up to the smallpox discovery and if we learn nothing from all of the incidents involving select agents over the years, it is that we can't find the next safety lapse if we don't go looking for it.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>412195</t>
   </si>
   <si>
+    <t>Castor</t>
+  </si>
+  <si>
+    <t>Kathy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Castor. Well, thank you, Mr. Chairman, for calling this important hearing, and welcome to our witnesses today.    The House Energy and Commerce Committee has been monitoring high-containment biolabs and the select agent program for nearly a decade and I believe that it is vital that we continue our oversight of these critical programs.    The committee held a hearing earlier this year about the importance of biodefense preparedness and we know that high-containment laboratories play a valuable role in that effort by conducting research, to improve our defenses against biological attacks and strengthening our response capabilities.    The Federal Government's work on identifying and containing public health risks from these type of biological agents is essential but it also poses many risks.    Everyone has been disturbed by the news of accidental releases or transfers of select agents such as anthrax, ebola and avian flu over the past few years. These incidents raise broader questions about the safety of our high-containment laboratories across the country.    And while I'm encouraged that no one has fallen ill as a result of those incidents, these pathogens need to be handled with the utmost safety and security. They could be extremely dangerous if they fell into the wrong hands or if infection spread to the general public.    The labs that handle these dangerous pathogens must be held to the highest standards. Yet, these recent incidents raise questions about whether or not we can trust high-containment labs to safely handle select agents and other dangerous pathogens.    I want to understand what these recent lapses can teach us about broader problems within the agencies and departments that handle select agents across the Federal Government as well within the private sector.    So we've asked the GAO to appear before us today to testify about their latest report on the need for up to date policies and stronger oversight mechanisms at our high-containment labs.    I look forward to hearing from you about your findings and recommendations and how they can be used to enhance safety and security at all of our nation's high-containment labs.    This GAO report underscores the need to strengthen our Federal oversight of labs that are working with dangerous pathogens. I also want to hear from witnesses about the role that Congress can play in making sure this program operates safely and without more of the operational lapses that seem all too common for such a serious program.    Is the current regulatory framework sufficient? Do the enforcement agencies have sufficient resources to ensure that oversight is robust? What are the agencies in front of us doing to improve their labs and prevent future incidents?    I look forward to hearing your testimony and I yield back.</t>
   </si>
   <si>
@@ -73,12 +88,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Neumann</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Neumann. I want to thank you, Chairman Murphy and Ranking Member DeGette and members of the subcommittee, for inviting me here today to discuss GAO's report on the oversight of high-containment laboratories, which was publicly released for this hearing.    Over the last 2 years, safety lapses at Federal high-containment laboratories have raised concerns about department and agency oversight of these facilities.    These labs work with hazardous biological agents such as the virus that causes smallpox, a contagious and sometimes fatal infectious disease to humans, as well as live anthrax bacteria which has the potential to seriously threaten both human and animal health.    High-containment labs do important work with pathogens such as developing vaccines and counter measures and conducting research to understand emerging infectious diseases.    However, some of these pathogens also have the potential for high-consequence accidents if handled improperly. Today, I would like to briefly highlight the findings from our report.    First, we found that most of the eight departments and 15 agencies with high-containment labs do not have comprehensive or up to date policies.    We considered policies to be comprehensive if they included the following six key elements for managing pathogens in high-containment labs, the first one being incident reporting, inventory control, inspections, clear roles and responsibilities, training and adherence to the leading biosafety guidance for laboratories published by CDC and NIH.    While departments and agencies had policies in place, as I noted most were not comprehensive, meaning that they did not include all these elements.    In addition, some policies were not up to date as they had not been reviewed and updated in accordance with their internal review schedules and in some cases these policies had not been reviewed in close to 10 years.    These policies and the six key elements are an important foundation for lab safety. But policies alone will not ensure the lab personnel are adhering to them. This brings me to our second finding.    Most of the department's agencies were using inspections or audits as a primary way of overseeing their high-containment labs. But they were often not routinely reporting inspection results to senior officials.    Getting these inspection results to senior officials is important because these results can be used to identify trends and systemic safety issues and ensure that needed improvements are made across all the labs.    Finally, at the time of our review, DoD and HHS were making some progress in implementing recommendations from previous laboratory safety reviews that they conducted after the 2014 and 2015 safety lapses.    However, we found that DoD and CDC had not developed time frames for implementing some of these recommendations and without time frames DoD and CDC will be limited in their ability to track progress towards implementing these needed improvements.    We made a total of 33 recommendations to the Federal departments and agencies with these high-containment labs to ensure that they have comprehensive and up to date policies as well as stronger oversight mechanisms at their labs.    There was brought agreement by the eight departments with our recommendations and several have already begun taking actions to address them.    In closing, I would like to note that our report that we are discussing today is the latest in a body of work that GAO has developed over the last 10 years on the Federal oversight of high-containment laboratories.    We continue to monitor this issue by drawing on expertise from across our agency including our health care experts, our chief scientists and experts from my own group, the science and technology area.    As you know, we are conducting additional work for the subcommittee specifically looking at the inactivation of pathogens in high-containment labs and we expect to issue that report to you in the next several months.    Thank you, Chairman Murphy, and members of the subcommittee for holding this hearing and continuing your oversight of this important issue.    This concludes my prepared remarks. I would be pleased to respond to any questions you may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you, Mr. Neumann.    Dr. Tabak, you're recognized for 5 minutes. Again, pull the microphone very close to you so we can hear.</t>
   </si>
   <si>
+    <t>Tabak</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Tabak. Good morning, Mr. Chairman, Ranking Member Castor and distinguished members of the subcommittee. It is an honor to appear before you today to discuss how the NIH implements biosafety and biosecurity measures for high-containment laboratories.    I know I speak for Dr. Collins when I say that our concerns for safety must equal our passion for research. I can attest that senior leadership at the NIH is committed to the principle that safety lapses provide concrete opportunities for thorough critical self-assessment and self-improvement.    NIH has an important mission to conduct research that will lead to the development of treatments, diagnostics and vaccines to address public health needs including medical counter measures.    The study of biologic-select agents and toxins is necessary to develop new interventions with the potential to save millions of lives. NIH also recognizes the importance of ensuring that the research is conducted in the safest manner possible.    In the summer of 2014, six sealed decades-old ampules of smallpox were found in a cold storage room in an FDA laboratory building located on the NIH campus. The presence of smallpox was alarming to the entire NIH community and initiated much action on the part of NIH leadership.    Upon making this discovery, all of the proper notifications and security steps were taken. The CDC and the FBI were contacted and joint custody of the ampules was transferred to the CDC.    NIH has established protocols and procedures which included proper training regarding select agent handling ensured that at no time was anyone on campus or the public at risk.    NIH takes this incident very seriously and we have implemented new policies and procedures to prevent such an event from occurring again.    First, NIH identified and inventoried all potential hazardous biological material stored in all NIH-owned and leased facilities. During this sweep, which took place from July through September 2014, nearly 35 million samples were inventoried.    Additionally, NIH and other Federal agencies launched a National biosafety stewardship month. Extramurally funded institutions were asked to voluntarily join the Federal laboratories and reviewing their procedures, training and inventories of infectious agents and toxins.    Longer term, NIH has strengthened our inventory management controls. We have developed and implemented the potentially hazardous biological material management plan which addresses accountability at all levels of NIH. The plan establishes a mandatory centralized database of all potentially hazardous biological materials as well as procedures for annual updates of inventories and random audits of laboratories' hazardous biological holdings.    Each institute and center was required to appoint an individual to be responsible for common shared use and storage areas and there are new policies in place requiring participation of personnel who work in secure select agent laboratories.    In February 2015, the external laboratory safety work group to the CDC advisory committee to the director reviewed our policies and practices.    The ELSW affirmed that NIH's response to the discovery of smallpox was prototypical and that NIH had implemented all of the recommendations made. The report states, and I quote, ``The NIH intramural DOHS program is a model program for institutions supporting extramural NIH research as well as for other institutions and agencies.''    The GAO review of high-containment laboratories that we meet here today to discuss found NIH's policies for laboratory management to be comprehensive. NIH implemented all of the GAO's recommendations and we addressed all of the six elements that the GAO identified as being key.    In closing, as principal deputy director of the NIH, I can assure this subcommittee that the senior leadership at NIH took appropriate action in 2014 and continues to act today to ensure the safety of the public and the scientist whose mission it is to find new ways to enhance health, lengthen life and reduce illness and disability.    We remain committed to preserving the public's trust and NIH-supported research activities through best safety practices and strong leadership.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -91,12 +112,18 @@
     <t xml:space="preserve">    Mr. Murphy. OK. But that was left out. I think that's critical for your testimony and I hope you would amend it to say that they were still alive.    Dr. Monroe, you are recognized for 5 minutes, please.</t>
   </si>
   <si>
+    <t>Monroe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Monroe. Good morning, Chairman Murphy, Representative Castor, other members of the subcommittee. Thank you for the opportunity to testify before you today on CDC's ongoing effort to strengthen the quality and safety of our laboratories.    I'm Dr. Steve Monroe, associate director for laboratory science and safety at CDC. In this new position, I serve as the single point of accountability for laboratory science and safety and I report directly to the CDC director, Tom Frieden.    I come to this role with 29 years of experience as a microbiologist at the agency. CDC laboratories remain an indispensable link in protecting the public's health.    Recently, we were pleased to welcome Chairman Murphy to our NIOSH facility in Pittsburgh and Ranking Member DeGette to our vector-borne diseases facility in Colorado where she saw first hand our frontline laboratory staff working 24/7 to address the ongoing Zika crisis.    Ensuring that all our laboratory work is performed with the utmost commitment to quality and to the safety of our workers and the community is and will remain of top priority for the agency.    In July 2014, Dr. Frieden testified before this subcommittee in the wake of a number of unacceptable safety incidents at CDC laboratories. Following the incident, CDC received multiple rigorous reviews of the agency's laboratory safety practices.    We continue to implement and track progress on each of the more than 200 recommendations we received through that process. While more work remains to be done, the progress made to date has been significant, particularly in CDC's laboratory oversight structure and approach.    My office oversees safety at all CDC laboratories. This includes overseeing our select agent compliance but it's distinct from CDC's Division of Select Agents and Toxins, which along with USDA regulates laboratories as part of the Federal select agent program.    My office ensures that CDC complies with select agent regulations in our own laboratories but it does not have authority over and is not involved in overseeing or enforcing the Federal select agency program.    An integral part of our reforms has been to foster a culture of safety in CDC's laboratories. Transparency and reporting are fundamental to such a culture.    One of my first acts in this role was to issue an agency wide memorandum to reiterate CDC's requirement for staff to report all safety issues and to provide clear direction on how to do so.    Another key achievement was the creation of the Laboratory Safety Review Board which is reviewing and approving all protocols from the transfer of biological materials out of BSL-3 and BSL-4 high-containment laboratories, a key issue identified in the 2014 incident.    CDC also established the laboratory leadership service, a fellowship program that prepares early career scientists to become future laboratory leaders.    Finally, CDC is committed to advancing the science of safety, applying the same rigorous scientific methods to laboratory safety that we use to confront threats to the public's health.    Last month, my office launched an intramural research fund to support agency laboratories in pursuing innovative solutions to laboratory safety challenges.    Last month, we saw a test of CDC's new laboratory oversight structure when a CDC worker was diagnosed with a salmonella infection that was likely acquired from their work in a CDC BSL-2 laboratory.    The worker has fully recovered and no other people appear to have been exposed. While the exposure should not have happened, CDC responded to this incident with urgency and transparency.    We will continue to strive to prevent incidents from happening. But if they do, we will do everything we can to identify and address the factor that contribute to the incident and do so swiftly, comprehensively and openly.    GAO's report on high-containment laboratories provides additional and valuable feedback on areas where CDC is succeeding and where continued improvements are required.    We already hard at work to address the issues GAO highlighted including finalizing our time lines for the remaining safety recommendations and working with HHS and our sister agencies on the Biosafety and Biosecurity Coordinating Council which will address some of the policies called for by     For CDC, laboratory safety is not a singular objective that can be checked off once completed. Rather, it is an ongoing commitment to a healthy and functioning culture of safety where monitoring and reporting are valued, issues are rapidly and openly addressed and efficient systems are in place to prevent a safety issue from becoming a safety incident.    Since Dr. Frieden testified before this subcommittee, CDC has made great progress in advancing this culture of safety at our laboratories. But more work remains to be done.    While the risks of working with these pathogens can never be completely eliminated, we will continue to reduce risks wherever possible. This includes diligently working to address the recommendations from the GAO.    Thank you for the opportunity to testify and I would be glad to answer any questions you may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you, Dr. Monroe.    Dr. Pillai, you're recognized for 5 minutes. Turn the microphone on and bring it up very close to you, please. Even closer. Get a lot closer. That's good.</t>
   </si>
   <si>
+    <t>Pillai</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Pillai. Good morning, Chairman Murphy, Ranking Member Castor and members of the subcommittee. I'm Dr. Segaran Pillai, director of the Office of Laboratory Science and Safety within the Office of the Commissioner at the FDA within the Department of Health and Human Services.    Thank you for the opportunity to appear before you today to discuss FDA's efforts to ensure the safety and security of our laboratories and the people who work in them. FDA's laboratories provide a critical role in fulfilling FDA's regulatory mission.    FDA's laboratories, like all laboratories, must comply with all applicable Federal, State, and local safety requirements.    To ensure this, the agency is deeply committed to ensuring compliance with relevant laws and regulations through a combination of training, issuance of specific policies and procedures, appropriate oversight by the safety offices in the centers and by fostering an agency wide culture of safety and security in our laboratories.    Upon discovery of the vials of Variola at an FDA laboratory located on the NIH campus in July of 2014, the FDA commissioner established the Laboratory Safety Practices and Policy working group.    The goal of the work group was to lead a careful and deliberate review of FDA's biosafety and biosecurity programs and to identify and implement methods to improve laboratory safety practices across the agency.    One of the first key actions of the working group was to complete a clean sweep, a full visual audit of all storage areas and laboratories. The vast majority of the FDA's roughly 670,000 vials of samples were properly stored.    However, there were two instances where select agents were improperly stored in secured locations. In both cases, the CDC's division for select agents and toxins was notified and the materials were destroyed.    In May of 2015 members of the advisory committee to the director of CDC's External Laboratory Safety working group conducted a thorough onsite review of the FDA's laboratory safety policies and procedures.    During this three-day visit, the work group met with key FDA officials to discuss the circumstances surrounding the discovery of the Variola samples on the NIH campus and review the policy elements of biosecurity and inventory control, laboratory safety training programs, laboratory security operations as well as the compliance programs.    The resulting report released in July the 10th, 2015 contained eight observations that included a total of 30 recommendations. We have implemented many of those recommendations and are making steady progress on the remaining recommendations that resulted from the review in order to build and strengthen FDA's comprehensive laboratory safety and security program.    In addition, FDA continues to work diligently to centralize appropriate laboratory safety practices including standardizing policies, procedures and defining inventory policies and audit procedures.    To gauge the cultural safety at FDA, we held a series of 13 focus groups with laboratory staff throughout the agency. The focus of the focus groups was to raise safety awareness and identify trends and risk areas.    Accountability, safety culture, communication and training were identified at critical areas by the focus groups. One of the key findings was in general staff was not afraid of reprisal if they were to report safety-related issues or concerns.    FDA is also planning additional ways to engage laboratory staff in a variety of settings including focus groups, town hall meetings and other forums to provide a positive and productive outlet for employees to communicate their thoughts and ideas for improving safety and security at the FDA laboratories.    An integral way to promote cultural safety and security and ensure compliance with legal and regulatory requirements is through training. FDA is in the process of implementing a core curriculum for biosafety and biosecurity training for all FDA personnel working in the biomedical research laboratories.    This cross cutting agency work safety training program will instill and strengthen a culture of safety and compliance throughout the agency.    In addition to the above, FDA also issued a new agency wide inventory control and management policy for biological agents and toxins.    Using a central electronic inventory control and management system will allow the agency to provide efficient oversight of all biological agents and toxins located at the centers and offices.    The recommendations from both the Laboratory Safety working group and GAO reports further validates our strategic approach and provides essential feedback for FDA as we continue to enhance our laboratory safety and security practices and policies.    The Government Accounting Offices reported that as of December 2015, FDA has met five of the six elements and policies for managing biological agents in the high-containment laboratories.    Although FDA's currently policy did not provide for laboratory incidents to be reported to the senior agency officials, incident reporting does occur within each of the FDA centers and offices and an analysis of the root cause is performed annually.    I'm also working closely with the FDA's safety offices to develop a more comprehensive reporting mechanism to capture laboratory accidents, incidents, near misses and laboratory-acquired infections.    This new reporting mechanism will be implemented in the coming months and will require all centers and offices to report all such events to my office.    The FDA's Office of Laboratory Science and Safety will establish an official FDA wide policy and work with the HHS biosafety and biosecurity coordinating council to recommend appropriate criteria and procedures for reporting incidents to the HHS leadership in a timely manner.    Since the discovery of the vials of Variola, FDA senior officials have taken direct and definitive actions to improve FDA's laboratory safety and security policies, practices and to foster a culture of safety and security across the agency.    I want to assure you that FDA stands fully committed to enhancing the safety and security to protect both our staff and the public. No regulations or guidelines can ensure safe----</t>
   </si>
   <si>
@@ -220,6 +247,12 @@
     <t>412487</t>
   </si>
   <si>
+    <t>McKinley</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McKinley. I thank you, Mr. Chairman.    Mr. Neumann, if I could spend a little time on your report. You've got a chart on Page 5 of the six elements that you were referring to in compliance.    I know that they're not all the same in weight. So I don't know which ones are more important than others in compliance. Would you suggest to us which are the ones that we should be spending more attention to of those six elements?    Unless you're going to tell me they're all equal, which I doubt.</t>
   </si>
   <si>
@@ -310,6 +343,12 @@
     <t>412485</t>
   </si>
   <si>
+    <t>Griffith</t>
+  </si>
+  <si>
+    <t>H.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Griffith. Thank you very much, Mr. Chairman. Thank you all for participating in this hearing today.    Dr. Tabak, I understand that the historical collection that contains the smallpox vials where there was a problem that had been previously discussed is not the only historical collection at NIH.    In fact, in 2002 or 2003, NIH registered a historical collection that included plague and Burkholderia samples using the information listed on labels for sealed envelopes. Isn't that correct?</t>
   </si>
   <si>
@@ -382,6 +421,12 @@
     <t>412539</t>
   </si>
   <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Brooks. Thank you, Mr. Chairman.    As the panelists might know, yesterday both NATO and the European Union intelligence officials indicated that there are, quote, ``justified concerns,'' end quote, that ISIS is working on obtaining biological material needed to carry out an attack.    With persistent analysis like this supporting the notion that terrorists are actively looking to acquire a weapon of mass destruction, I certainly hope that our Government will redouble our efforts in protecting sensitive materials from getting into the wrong hands.    We also know that in October it was revealed that a 26-year-old Moroccan-born man who had worked in a sensitive area in a nuclear power plant in Belgium died in the spring while fighting for ISIS.    This terrorist had passed a background check and had access to a secure area where the nuclear reactor is located. Obviously, it can happen in the biological space as well. We shouldn't forget that the perpetrator of the '01 anthrax incident was a scientist who worked at the Government's biodefense labs at Fort Derrick.    I bring that up because we can have all the policies and procedures in place and we can have taken corrective actions and so forth. But I'm curious, Mr. Neumann, did you and GAO look at the security level of personnel in your report?</t>
   </si>
   <si>
@@ -445,6 +490,12 @@
     <t>412550</t>
   </si>
   <si>
+    <t>Hudson</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hudson. Thank you, Mr. Chairman, and thank you to the panel for being here.    Dr. Pillai, the NIH office that had the smallpox boxes was reassigned to the FDA in 1972. Why didn't the FDA do any sort of inventory over the room when it was transferred to control at that point or at any time from 1972 to 2014.    It seems to me that one simple inventory, something that businesses back in my district do every year, would have caught this mistake.</t>
   </si>
   <si>
@@ -500,6 +551,12 @@
   </si>
   <si>
     <t>412568</t>
+  </si>
+  <si>
+    <t>Mullin</t>
+  </si>
+  <si>
+    <t>Markwayne</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Mullin. Thank you, Mr. Chairman. I'm going to follow up on your questions, too.    Even after we got the information that anthrax had been basically not kept good records on and it had been shipped around, being used for experiments, people not knowing where they're at.    Once you discovered this you decided to do an inventory and look for anthrax, if any more had taken place. And specifically, NIH limited the search to only anthrax. Why was this?</t>
@@ -1100,7 +1157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H236"/>
+  <dimension ref="A1:I236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1108,7 +1165,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1130,5645 +1187,6619 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
       <c r="H44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G46" t="s">
+        <v>18</v>
+      </c>
       <c r="H46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s">
+        <v>18</v>
+      </c>
       <c r="H48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
       <c r="H50" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G51" t="s">
+        <v>18</v>
+      </c>
       <c r="H51" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G52" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G53" t="s">
+        <v>18</v>
+      </c>
       <c r="H53" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
       <c r="H54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
       <c r="H56" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>67</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G57" t="s">
+        <v>77</v>
+      </c>
       <c r="H57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>67</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G59" t="s">
+        <v>77</v>
+      </c>
       <c r="H59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>67</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G61" t="s">
+        <v>77</v>
+      </c>
       <c r="H61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G62" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>67</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G63" t="s">
+        <v>77</v>
+      </c>
       <c r="H63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>67</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G65" t="s">
+        <v>77</v>
+      </c>
       <c r="H65" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G66" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>67</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G67" t="s">
+        <v>77</v>
+      </c>
       <c r="H67" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G68" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>67</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G69" t="s">
+        <v>77</v>
+      </c>
       <c r="H69" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G70" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>67</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G71" t="s">
+        <v>77</v>
+      </c>
       <c r="H71" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G73" t="s">
+        <v>77</v>
+      </c>
       <c r="H73" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I73" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G74" t="s">
+        <v>24</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>67</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G75" t="s">
+        <v>77</v>
+      </c>
       <c r="H75" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I75" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G76" t="s">
+        <v>24</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>67</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G77" t="s">
+        <v>77</v>
+      </c>
       <c r="H77" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I77" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G78" t="s">
+        <v>24</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>67</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G79" t="s">
+        <v>77</v>
+      </c>
       <c r="H79" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G80" t="s">
+        <v>24</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>67</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G81" t="s">
+        <v>77</v>
+      </c>
       <c r="H81" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I81" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G82" t="s">
+        <v>24</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>67</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G83" t="s">
+        <v>77</v>
+      </c>
       <c r="H83" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I83" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G84" t="s">
+        <v>24</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>67</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G85" t="s">
+        <v>77</v>
+      </c>
       <c r="H85" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I85" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
       <c r="H86" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>97</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G87" t="s">
+        <v>109</v>
+      </c>
       <c r="H87" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G88" t="s">
+        <v>27</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>97</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G89" t="s">
+        <v>109</v>
+      </c>
       <c r="H89" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I89" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G90" t="s">
+        <v>27</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>97</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G91" t="s">
+        <v>109</v>
+      </c>
       <c r="H91" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I91" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G92" t="s">
+        <v>27</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>97</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G93" t="s">
+        <v>109</v>
+      </c>
       <c r="H93" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I93" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G94" t="s">
+        <v>27</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>97</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G95" t="s">
+        <v>109</v>
+      </c>
       <c r="H95" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I95" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G96" t="s">
+        <v>27</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>97</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G97" t="s">
+        <v>109</v>
+      </c>
       <c r="H97" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I97" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G98" t="s">
+        <v>27</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>97</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G99" t="s">
+        <v>109</v>
+      </c>
       <c r="H99" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I99" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G100" t="s">
+        <v>27</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>97</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G101" t="s">
+        <v>109</v>
+      </c>
       <c r="H101" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I101" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G102" t="s">
+        <v>27</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>97</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G103" t="s">
+        <v>109</v>
+      </c>
       <c r="H103" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I103" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G104" t="s">
+        <v>35</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>97</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G105" t="s">
+        <v>109</v>
+      </c>
       <c r="H105" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I105" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G106" t="s">
+        <v>35</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>97</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G107" t="s">
+        <v>109</v>
+      </c>
       <c r="H107" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I107" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G108" t="s">
+        <v>35</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>97</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G109" t="s">
+        <v>109</v>
+      </c>
       <c r="H109" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I109" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>13</v>
+      </c>
       <c r="H110" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>121</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G111" t="s">
+        <v>135</v>
+      </c>
       <c r="H111" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I111" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G112" t="s">
+        <v>24</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>121</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G113" t="s">
+        <v>135</v>
+      </c>
       <c r="H113" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I113" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G114" t="s">
+        <v>24</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>121</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G115" t="s">
+        <v>135</v>
+      </c>
       <c r="H115" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I115" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G116" t="s">
+        <v>27</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>121</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G117" t="s">
+        <v>135</v>
+      </c>
       <c r="H117" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I117" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G118" t="s">
+        <v>27</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>121</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G119" t="s">
+        <v>135</v>
+      </c>
       <c r="H119" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I119" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G120" t="s">
+        <v>27</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>121</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G121" t="s">
+        <v>135</v>
+      </c>
       <c r="H121" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I121" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G122" t="s">
+        <v>27</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>121</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G123" t="s">
+        <v>135</v>
+      </c>
       <c r="H123" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I123" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G124" t="s">
+        <v>27</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>121</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G125" t="s">
+        <v>135</v>
+      </c>
       <c r="H125" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="I125" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G126" t="s">
+        <v>27</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>121</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G127" t="s">
+        <v>135</v>
+      </c>
       <c r="H127" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I127" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>13</v>
+      </c>
       <c r="H128" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I128" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G129" t="s">
+        <v>32</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>13</v>
+      </c>
       <c r="H130" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>142</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G131" t="s">
+        <v>158</v>
+      </c>
       <c r="H131" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I131" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G132" t="s">
+        <v>35</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>142</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G133" t="s">
+        <v>158</v>
+      </c>
       <c r="H133" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I133" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>18</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G134" t="s">
+        <v>35</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>142</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G135" t="s">
+        <v>158</v>
+      </c>
       <c r="H135" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I135" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>18</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G136" t="s">
+        <v>35</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>142</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G137" t="s">
+        <v>158</v>
+      </c>
       <c r="H137" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I137" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G138" t="s">
+        <v>35</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>142</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G139" t="s">
+        <v>158</v>
+      </c>
       <c r="H139" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I139" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G140" t="s">
+        <v>35</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>142</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G141" t="s">
+        <v>158</v>
+      </c>
       <c r="H141" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I141" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
       <c r="H142" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G143" t="s">
+        <v>27</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>13</v>
+      </c>
       <c r="H144" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>18</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G145" t="s">
+        <v>32</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G146" t="s">
+        <v>13</v>
+      </c>
       <c r="H146" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I146" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>18</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G147" t="s">
+        <v>35</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G148" t="s">
+        <v>13</v>
+      </c>
       <c r="H148" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I148" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>161</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G149" t="s">
+        <v>179</v>
+      </c>
       <c r="H149" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I149" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G150" t="s">
+        <v>27</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>161</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G151" t="s">
+        <v>179</v>
+      </c>
       <c r="H151" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I151" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G152" t="s">
+        <v>27</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>161</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G153" t="s">
+        <v>179</v>
+      </c>
       <c r="H153" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I153" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G154" t="s">
+        <v>27</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>161</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G155" t="s">
+        <v>179</v>
+      </c>
       <c r="H155" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I155" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>18</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G156" t="s">
+        <v>27</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>161</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G157" t="s">
+        <v>179</v>
+      </c>
       <c r="H157" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I157" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G158" t="s">
+        <v>27</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>161</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G159" t="s">
+        <v>179</v>
+      </c>
       <c r="H159" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I159" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G160" t="s">
+        <v>27</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>161</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G161" t="s">
+        <v>179</v>
+      </c>
       <c r="H161" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I161" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>18</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G162" t="s">
+        <v>27</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>161</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G163" t="s">
+        <v>179</v>
+      </c>
       <c r="H163" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I163" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>18</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G164" t="s">
+        <v>27</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>161</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G165" t="s">
+        <v>179</v>
+      </c>
       <c r="H165" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I165" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G166" t="s">
+        <v>27</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>161</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G167" t="s">
+        <v>179</v>
+      </c>
       <c r="H167" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="168" spans="1:8">
+      <c r="I167" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G168" t="s">
+        <v>27</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>161</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G169" t="s">
+        <v>179</v>
+      </c>
       <c r="H169" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I169" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>18</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G170" t="s">
+        <v>27</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>161</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G171" t="s">
+        <v>179</v>
+      </c>
       <c r="H171" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I171" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>18</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G172" t="s">
+        <v>27</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>161</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G173" t="s">
+        <v>179</v>
+      </c>
       <c r="H173" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I173" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>18</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G174" t="s">
+        <v>27</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>161</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G175" t="s">
+        <v>179</v>
+      </c>
       <c r="H175" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I175" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>11</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G176" t="s">
+        <v>13</v>
+      </c>
       <c r="H176" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I176" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>121</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G177" t="s">
+        <v>135</v>
+      </c>
       <c r="H177" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I177" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>121</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G178" t="s">
+        <v>135</v>
+      </c>
       <c r="H178" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I178" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>121</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G179" t="s">
+        <v>135</v>
+      </c>
       <c r="H179" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I179" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>11</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G180" t="s">
+        <v>13</v>
+      </c>
       <c r="H180" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I180" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>18</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G181" t="s">
+        <v>27</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>11</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G182" t="s">
+        <v>13</v>
+      </c>
       <c r="H182" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I182" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>18</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G183" t="s">
+        <v>27</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>11</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G184" t="s">
+        <v>13</v>
+      </c>
       <c r="H184" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I184" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>18</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G185" t="s">
+        <v>27</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>11</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G186" t="s">
+        <v>13</v>
+      </c>
       <c r="H186" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I186" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>18</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G187" t="s">
+        <v>27</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>11</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G188" t="s">
+        <v>13</v>
+      </c>
       <c r="H188" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I188" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>18</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G189" t="s">
+        <v>27</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>11</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G190" t="s">
+        <v>13</v>
+      </c>
       <c r="H190" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I190" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>11</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G191" t="s">
+        <v>13</v>
+      </c>
       <c r="H191" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I191" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>18</v>
-      </c>
-      <c r="G192" t="s"/>
-      <c r="H192" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G192" t="s">
+        <v>27</v>
+      </c>
+      <c r="H192" t="s"/>
+      <c r="I192" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>11</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G193" t="s">
+        <v>13</v>
+      </c>
       <c r="H193" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I193" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>18</v>
-      </c>
-      <c r="G194" t="s"/>
-      <c r="H194" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G194" t="s">
+        <v>27</v>
+      </c>
+      <c r="H194" t="s"/>
+      <c r="I194" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>11</v>
-      </c>
-      <c r="G195" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G195" t="s">
+        <v>13</v>
+      </c>
       <c r="H195" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I195" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>18</v>
-      </c>
-      <c r="G196" t="s"/>
-      <c r="H196" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G196" t="s">
+        <v>35</v>
+      </c>
+      <c r="H196" t="s"/>
+      <c r="I196" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>11</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G197" t="s">
+        <v>13</v>
+      </c>
       <c r="H197" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I197" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>18</v>
-      </c>
-      <c r="G198" t="s"/>
-      <c r="H198" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G198" t="s">
+        <v>35</v>
+      </c>
+      <c r="H198" t="s"/>
+      <c r="I198" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>11</v>
-      </c>
-      <c r="G199" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G199" t="s">
+        <v>13</v>
+      </c>
       <c r="H199" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I199" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>18</v>
-      </c>
-      <c r="G200" t="s"/>
-      <c r="H200" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G200" t="s">
+        <v>35</v>
+      </c>
+      <c r="H200" t="s"/>
+      <c r="I200" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>11</v>
-      </c>
-      <c r="G201" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G201" t="s">
+        <v>13</v>
+      </c>
       <c r="H201" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I201" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>18</v>
-      </c>
-      <c r="G202" t="s"/>
-      <c r="H202" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G202" t="s">
+        <v>35</v>
+      </c>
+      <c r="H202" t="s"/>
+      <c r="I202" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>11</v>
-      </c>
-      <c r="G203" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G203" t="s">
+        <v>13</v>
+      </c>
       <c r="H203" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I203" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>18</v>
-      </c>
-      <c r="G204" t="s"/>
-      <c r="H204" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G204" t="s">
+        <v>35</v>
+      </c>
+      <c r="H204" t="s"/>
+      <c r="I204" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>11</v>
-      </c>
-      <c r="G205" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G205" t="s">
+        <v>13</v>
+      </c>
       <c r="H205" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I205" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>18</v>
-      </c>
-      <c r="G206" t="s"/>
-      <c r="H206" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G206" t="s">
+        <v>35</v>
+      </c>
+      <c r="H206" t="s"/>
+      <c r="I206" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>11</v>
-      </c>
-      <c r="G207" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G207" t="s">
+        <v>13</v>
+      </c>
       <c r="H207" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I207" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>18</v>
-      </c>
-      <c r="G208" t="s"/>
-      <c r="H208" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G208" t="s">
+        <v>35</v>
+      </c>
+      <c r="H208" t="s"/>
+      <c r="I208" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>11</v>
-      </c>
-      <c r="G209" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G209" t="s">
+        <v>13</v>
+      </c>
       <c r="H209" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I209" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>18</v>
-      </c>
-      <c r="G210" t="s"/>
-      <c r="H210" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G210" t="s">
+        <v>35</v>
+      </c>
+      <c r="H210" t="s"/>
+      <c r="I210" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>11</v>
-      </c>
-      <c r="G211" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G211" t="s">
+        <v>13</v>
+      </c>
       <c r="H211" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I211" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>18</v>
-      </c>
-      <c r="G212" t="s"/>
-      <c r="H212" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G212" t="s">
+        <v>35</v>
+      </c>
+      <c r="H212" t="s"/>
+      <c r="I212" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>11</v>
-      </c>
-      <c r="G213" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G213" t="s">
+        <v>13</v>
+      </c>
       <c r="H213" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I213" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>18</v>
-      </c>
-      <c r="G214" t="s"/>
-      <c r="H214" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G214" t="s">
+        <v>35</v>
+      </c>
+      <c r="H214" t="s"/>
+      <c r="I214" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>11</v>
-      </c>
-      <c r="G215" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G215" t="s">
+        <v>13</v>
+      </c>
       <c r="H215" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I215" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F216" t="s">
-        <v>18</v>
-      </c>
-      <c r="G216" t="s"/>
-      <c r="H216" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G216" t="s">
+        <v>35</v>
+      </c>
+      <c r="H216" t="s"/>
+      <c r="I216" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F217" t="s">
-        <v>11</v>
-      </c>
-      <c r="G217" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G217" t="s">
+        <v>13</v>
+      </c>
       <c r="H217" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I217" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F218" t="s">
-        <v>18</v>
-      </c>
-      <c r="G218" t="s"/>
-      <c r="H218" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G218" t="s">
+        <v>35</v>
+      </c>
+      <c r="H218" t="s"/>
+      <c r="I218" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F219" t="s">
-        <v>11</v>
-      </c>
-      <c r="G219" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G219" t="s">
+        <v>13</v>
+      </c>
       <c r="H219" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I219" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F220" t="s">
-        <v>18</v>
-      </c>
-      <c r="G220" t="s"/>
-      <c r="H220" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G220" t="s">
+        <v>35</v>
+      </c>
+      <c r="H220" t="s"/>
+      <c r="I220" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>11</v>
-      </c>
-      <c r="G221" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G221" t="s">
+        <v>13</v>
+      </c>
       <c r="H221" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I221" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F222" t="s">
-        <v>18</v>
-      </c>
-      <c r="G222" t="s"/>
-      <c r="H222" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G222" t="s">
+        <v>35</v>
+      </c>
+      <c r="H222" t="s"/>
+      <c r="I222" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F223" t="s">
-        <v>11</v>
-      </c>
-      <c r="G223" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G223" t="s">
+        <v>13</v>
+      </c>
       <c r="H223" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I223" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F224" t="s">
-        <v>18</v>
-      </c>
-      <c r="G224" t="s"/>
-      <c r="H224" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G224" t="s">
+        <v>32</v>
+      </c>
+      <c r="H224" t="s"/>
+      <c r="I224" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F225" t="s">
-        <v>11</v>
-      </c>
-      <c r="G225" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G225" t="s">
+        <v>13</v>
+      </c>
       <c r="H225" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I225" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E226" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F226" t="s">
-        <v>18</v>
-      </c>
-      <c r="G226" t="s"/>
-      <c r="H226" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G226" t="s">
+        <v>32</v>
+      </c>
+      <c r="H226" t="s"/>
+      <c r="I226" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E227" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F227" t="s">
-        <v>11</v>
-      </c>
-      <c r="G227" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G227" t="s">
+        <v>13</v>
+      </c>
       <c r="H227" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I227" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E228" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F228" t="s">
-        <v>18</v>
-      </c>
-      <c r="G228" t="s"/>
-      <c r="H228" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G228" t="s">
+        <v>27</v>
+      </c>
+      <c r="H228" t="s"/>
+      <c r="I228" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E229" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F229" t="s">
-        <v>11</v>
-      </c>
-      <c r="G229" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G229" t="s">
+        <v>13</v>
+      </c>
       <c r="H229" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I229" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E230" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F230" t="s">
-        <v>18</v>
-      </c>
-      <c r="G230" t="s"/>
-      <c r="H230" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G230" t="s">
+        <v>35</v>
+      </c>
+      <c r="H230" t="s"/>
+      <c r="I230" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E231" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F231" t="s">
-        <v>11</v>
-      </c>
-      <c r="G231" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G231" t="s">
+        <v>13</v>
+      </c>
       <c r="H231" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I231" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E232" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F232" t="s">
-        <v>18</v>
-      </c>
-      <c r="G232" t="s"/>
-      <c r="H232" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G232" t="s">
+        <v>35</v>
+      </c>
+      <c r="H232" t="s"/>
+      <c r="I232" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E233" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F233" t="s">
-        <v>11</v>
-      </c>
-      <c r="G233" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G233" t="s">
+        <v>13</v>
+      </c>
       <c r="H233" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I233" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E234" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F234" t="s">
-        <v>18</v>
-      </c>
-      <c r="G234" t="s"/>
-      <c r="H234" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G234" t="s">
+        <v>35</v>
+      </c>
+      <c r="H234" t="s"/>
+      <c r="I234" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E235" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F235" t="s">
-        <v>11</v>
-      </c>
-      <c r="G235" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G235" t="s">
+        <v>13</v>
+      </c>
       <c r="H235" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I235" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E236" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F236" t="s">
-        <v>11</v>
-      </c>
-      <c r="G236" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G236" t="s">
+        <v>13</v>
+      </c>
       <c r="H236" t="s">
-        <v>245</v>
+        <v>14</v>
+      </c>
+      <c r="I236" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
